--- a/currentbuild/CodeSystem-OktStayTypeCs.xlsx
+++ b/currentbuild/CodeSystem-OktStayTypeCs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T11:41:55+00:00</t>
+    <t>2025-11-12T13:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-OktStayTypeCs.xlsx
+++ b/currentbuild/CodeSystem-OktStayTypeCs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T13:38:48+00:00</t>
+    <t>2025-11-12T13:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-OktStayTypeCs.xlsx
+++ b/currentbuild/CodeSystem-OktStayTypeCs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T13:47:08+00:00</t>
+    <t>2025-11-12T16:10:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,21 +123,24 @@
     <t>Count</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>dagopphold</t>
   </si>
   <si>
@@ -145,6 +148,15 @@
   </si>
   <si>
     <t>Dagopphold i institusjon</t>
+  </si>
+  <si>
+    <t>korttidsopphold</t>
+  </si>
+  <si>
+    <t>Korttidsopphold</t>
+  </si>
+  <si>
+    <t>Korttidsopphold i institusjon</t>
   </si>
 </sst>
 </file>
@@ -457,7 +469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,16 +491,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>43</v>
+      <c r="B3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/CodeSystem-OktStayTypeCs.xlsx
+++ b/currentbuild/CodeSystem-OktStayTypeCs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T16:10:30+00:00</t>
+    <t>2025-11-14T11:11:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
